--- a/Diagrama Gant.xlsx
+++ b/Diagrama Gant.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -121,9 +121,6 @@
     <t>TAREA</t>
   </si>
   <si>
-    <t>Tarea 5</t>
-  </si>
-  <si>
     <t>Inserte nuevas filas ENCIMA de ésta</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>INICIO</t>
-  </si>
-  <si>
-    <t>fecha</t>
   </si>
   <si>
     <t>FIN</t>
@@ -210,6 +204,12 @@
   </si>
   <si>
     <t>Analytical Insights Co.</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Flavio</t>
   </si>
 </sst>
 </file>
@@ -1156,26 +1156,26 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1732,13 +1732,13 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1781,109 +1781,109 @@
         <v>2</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="74">
+        <v>43</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="73">
         <f ca="1">TODAY()</f>
         <v>45188</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="70"/>
+      <c r="C4" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="75"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="70">
         <f ca="1">I5</f>
         <v>45187</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="71">
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="70">
         <f ca="1">P5</f>
         <v>45194</v>
       </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="71">
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="70">
         <f ca="1">W5</f>
         <v>45201</v>
       </c>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="71">
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="70">
         <f ca="1">AD5</f>
         <v>45208</v>
       </c>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="71">
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="70">
         <f ca="1">AK5</f>
         <v>45215</v>
       </c>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="73"/>
-      <c r="AR4" s="71">
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="70">
         <f ca="1">AR5</f>
         <v>45222</v>
       </c>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="73"/>
-      <c r="AY4" s="71">
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="70">
         <f ca="1">AY5</f>
         <v>45229</v>
       </c>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="73"/>
-      <c r="BF4" s="71">
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="70">
         <f ca="1">BF5</f>
         <v>45236</v>
       </c>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="73"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="72"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -2128,20 +2128,20 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2440,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="16"/>
@@ -2513,13 +2513,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="62">
         <f ca="1">Inicio_del_proyecto</f>
@@ -2596,9 +2596,11 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="40"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>44</v>
+      </c>
       <c r="D10" s="17">
         <v>0.6</v>
       </c>
@@ -2675,9 +2677,11 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="40"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>45</v>
+      </c>
       <c r="D11" s="17">
         <v>0.5</v>
       </c>
@@ -2754,9 +2758,11 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="40"/>
+        <v>29</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="17">
         <v>0.25</v>
       </c>
@@ -2835,8 +2841,12 @@
       <c r="B13" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
       <c r="E13" s="62">
         <f ca="1">E10+1</f>
         <v>45192</v>
@@ -2909,21 +2919,11 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
-      <c r="B14" s="66" t="s">
-        <v>32</v>
-      </c>
+      <c r="B14" s="66"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="17">
-        <v>1.25</v>
-      </c>
-      <c r="E14" s="62">
-        <f ca="1">F13</f>
-        <v>45194</v>
-      </c>
-      <c r="F14" s="62">
-        <f ca="1">E14+5</f>
-        <v>45199</v>
-      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="28"/>
@@ -2988,7 +2988,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="19"/>
@@ -3058,12 +3058,14 @@
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
-      <c r="B16" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="42"/>
+      <c r="B16" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="63">
         <f ca="1">E13+1</f>
@@ -3137,12 +3139,14 @@
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
-      <c r="B17" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="42"/>
+      <c r="B17" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="63">
         <f ca="1">E16+2</f>
@@ -3216,11 +3220,15 @@
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
-      <c r="B18" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
       <c r="E18" s="63">
         <f ca="1">F17</f>
         <v>45200</v>
@@ -3293,11 +3301,15 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
-      <c r="B19" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0</v>
+      </c>
       <c r="E19" s="63">
         <f ca="1">E18</f>
         <v>45200</v>
@@ -3371,12 +3383,20 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="63">
+        <v>45207</v>
+      </c>
+      <c r="F20" s="63">
+        <v>45214</v>
+      </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="28"/>
@@ -3439,12 +3459,20 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="63">
+        <v>45215</v>
+      </c>
+      <c r="F21" s="63">
+        <v>45217</v>
+      </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="28"/>
@@ -3507,12 +3535,20 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+        <v>38</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="63">
+        <v>45218</v>
+      </c>
+      <c r="F22" s="63">
+        <v>45222</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="28"/>
@@ -3574,23 +3610,15 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
-      <c r="B23" s="46" t="s">
-        <v>16</v>
-      </c>
+      <c r="B23" s="46"/>
       <c r="C23" s="42"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="63">
-        <f ca="1">E19</f>
-        <v>45200</v>
-      </c>
-      <c r="F23" s="63">
-        <f ca="1">E23+3</f>
-        <v>45203</v>
-      </c>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+      <c r="H23" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
@@ -3654,7 +3682,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="22"/>
@@ -3725,20 +3753,22 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="44"/>
+        <v>40</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>23</v>
+      <c r="E25" s="64">
+        <v>45223</v>
+      </c>
+      <c r="F25" s="64">
+        <v>45231</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14" t="e">
+      <c r="H25" s="14">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
@@ -3800,20 +3830,22 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="44"/>
+        <v>41</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>23</v>
+      <c r="E26" s="64">
+        <v>45223</v>
+      </c>
+      <c r="F26" s="64">
+        <v>45231</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="e">
+      <c r="H26" s="14">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
@@ -3948,7 +3980,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
@@ -4028,17 +4060,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
@@ -4126,6 +4158,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4413,35 +4454,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4460,12 +4500,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Diagrama Gant.xlsx
+++ b/Diagrama Gant.xlsx
@@ -1159,6 +1159,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1170,12 +1176,6 @@
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1731,8 +1731,8 @@
   <dimension ref="A1:BL31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,107 +1783,107 @@
       <c r="B3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="73">
+      <c r="D3" s="71"/>
+      <c r="E3" s="75">
         <f ca="1">TODAY()</f>
-        <v>45188</v>
-      </c>
-      <c r="F3" s="73"/>
+        <v>45198</v>
+      </c>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="72">
         <f ca="1">I5</f>
-        <v>45187</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="70">
+        <v>45194</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="72">
         <f ca="1">P5</f>
-        <v>45194</v>
-      </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="70">
+        <v>45201</v>
+      </c>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="72">
         <f ca="1">W5</f>
-        <v>45201</v>
-      </c>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="70">
+        <v>45208</v>
+      </c>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="72">
         <f ca="1">AD5</f>
-        <v>45208</v>
-      </c>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="70">
+        <v>45215</v>
+      </c>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="72">
         <f ca="1">AK5</f>
-        <v>45215</v>
-      </c>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="70">
+        <v>45222</v>
+      </c>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="72">
         <f ca="1">AR5</f>
-        <v>45222</v>
-      </c>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="70">
+        <v>45229</v>
+      </c>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="72">
         <f ca="1">AY5</f>
-        <v>45229</v>
-      </c>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="72"/>
-      <c r="BF4" s="70">
+        <v>45236</v>
+      </c>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+      <c r="BC4" s="73"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="72">
         <f ca="1">BF5</f>
-        <v>45236</v>
-      </c>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="72"/>
+        <v>45243</v>
+      </c>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="73"/>
+      <c r="BJ4" s="73"/>
+      <c r="BK4" s="73"/>
+      <c r="BL4" s="74"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -1897,227 +1897,227 @@
       <c r="G5" s="48"/>
       <c r="I5" s="59">
         <f ca="1">Inicio_del_proyecto-WEEKDAY(Inicio_del_proyecto,1)+2+7*(Semana_para_mostrar-1)</f>
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="J5" s="60">
         <f ca="1">I5+1</f>
-        <v>45188</v>
+        <v>45195</v>
       </c>
       <c r="K5" s="60">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45189</v>
+        <v>45196</v>
       </c>
       <c r="L5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45190</v>
+        <v>45197</v>
       </c>
       <c r="M5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45191</v>
+        <v>45198</v>
       </c>
       <c r="N5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="O5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="P5" s="59">
         <f ca="1">O5+1</f>
-        <v>45194</v>
+        <v>45201</v>
       </c>
       <c r="Q5" s="60">
         <f ca="1">P5+1</f>
-        <v>45195</v>
+        <v>45202</v>
       </c>
       <c r="R5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45196</v>
+        <v>45203</v>
       </c>
       <c r="S5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="T5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45198</v>
+        <v>45205</v>
       </c>
       <c r="U5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45199</v>
+        <v>45206</v>
       </c>
       <c r="V5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="W5" s="59">
         <f ca="1">V5+1</f>
-        <v>45201</v>
+        <v>45208</v>
       </c>
       <c r="X5" s="60">
         <f ca="1">W5+1</f>
-        <v>45202</v>
+        <v>45209</v>
       </c>
       <c r="Y5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45203</v>
+        <v>45210</v>
       </c>
       <c r="Z5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45211</v>
       </c>
       <c r="AA5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45205</v>
+        <v>45212</v>
       </c>
       <c r="AB5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45213</v>
       </c>
       <c r="AC5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45207</v>
+        <v>45214</v>
       </c>
       <c r="AD5" s="59">
         <f ca="1">AC5+1</f>
-        <v>45208</v>
+        <v>45215</v>
       </c>
       <c r="AE5" s="60">
         <f ca="1">AD5+1</f>
-        <v>45209</v>
+        <v>45216</v>
       </c>
       <c r="AF5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45210</v>
+        <v>45217</v>
       </c>
       <c r="AG5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
+        <v>45218</v>
       </c>
       <c r="AH5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45212</v>
+        <v>45219</v>
       </c>
       <c r="AI5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45220</v>
       </c>
       <c r="AJ5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="AK5" s="59">
         <f ca="1">AJ5+1</f>
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="AL5" s="60">
         <f ca="1">AK5+1</f>
-        <v>45216</v>
+        <v>45223</v>
       </c>
       <c r="AM5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45217</v>
+        <v>45224</v>
       </c>
       <c r="AN5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45218</v>
+        <v>45225</v>
       </c>
       <c r="AO5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="AP5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45220</v>
+        <v>45227</v>
       </c>
       <c r="AQ5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="AR5" s="59">
         <f ca="1">AQ5+1</f>
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="AS5" s="60">
         <f ca="1">AR5+1</f>
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="AT5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45224</v>
+        <v>45231</v>
       </c>
       <c r="AU5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45232</v>
       </c>
       <c r="AV5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45226</v>
+        <v>45233</v>
       </c>
       <c r="AW5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45227</v>
+        <v>45234</v>
       </c>
       <c r="AX5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="AY5" s="59">
         <f ca="1">AX5+1</f>
-        <v>45229</v>
+        <v>45236</v>
       </c>
       <c r="AZ5" s="60">
         <f ca="1">AY5+1</f>
-        <v>45230</v>
+        <v>45237</v>
       </c>
       <c r="BA5" s="60">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45231</v>
+        <v>45238</v>
       </c>
       <c r="BB5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45232</v>
+        <v>45239</v>
       </c>
       <c r="BC5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="BD5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="BE5" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="BF5" s="59">
         <f ca="1">BE5+1</f>
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="BG5" s="60">
         <f ca="1">BF5+1</f>
-        <v>45237</v>
+        <v>45244</v>
       </c>
       <c r="BH5" s="60">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45238</v>
+        <v>45245</v>
       </c>
       <c r="BI5" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45239</v>
+        <v>45246</v>
       </c>
       <c r="BJ5" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="BK5" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45241</v>
+        <v>45248</v>
       </c>
       <c r="BL5" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>45242</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2523,11 +2523,11 @@
       </c>
       <c r="E9" s="62">
         <f ca="1">Inicio_del_proyecto</f>
-        <v>45188</v>
+        <v>45198</v>
       </c>
       <c r="F9" s="62">
         <f ca="1">E9+3</f>
-        <v>45191</v>
+        <v>45201</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -2602,15 +2602,15 @@
         <v>44</v>
       </c>
       <c r="D10" s="17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="62">
         <f ca="1">F9</f>
-        <v>45191</v>
+        <v>45201</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">E10+2</f>
-        <v>45193</v>
+        <v>45203</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -2683,15 +2683,15 @@
         <v>45</v>
       </c>
       <c r="D11" s="17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E11" s="62">
         <f ca="1">F10</f>
-        <v>45193</v>
+        <v>45203</v>
       </c>
       <c r="F11" s="62">
         <f ca="1">E11+4</f>
-        <v>45197</v>
+        <v>45207</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -2764,15 +2764,15 @@
         <v>44</v>
       </c>
       <c r="D12" s="17">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="E12" s="62">
         <f ca="1">F11</f>
-        <v>45197</v>
+        <v>45207</v>
       </c>
       <c r="F12" s="62">
         <f ca="1">E12+5</f>
-        <v>45202</v>
+        <v>45212</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
@@ -2845,15 +2845,15 @@
         <v>44</v>
       </c>
       <c r="D13" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="62">
         <f ca="1">E10+1</f>
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="F13" s="62">
         <f ca="1">E13+2</f>
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
@@ -3065,15 +3065,15 @@
         <v>44</v>
       </c>
       <c r="D16" s="20">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="63">
         <f ca="1">E13+1</f>
-        <v>45193</v>
+        <v>45203</v>
       </c>
       <c r="F16" s="63">
         <f ca="1">E16+4</f>
-        <v>45197</v>
+        <v>45207</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
@@ -3146,15 +3146,15 @@
         <v>44</v>
       </c>
       <c r="D17" s="20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E17" s="63">
         <f ca="1">E16+2</f>
-        <v>45195</v>
+        <v>45205</v>
       </c>
       <c r="F17" s="63">
         <f ca="1">E17+5</f>
-        <v>45200</v>
+        <v>45210</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
@@ -3231,11 +3231,11 @@
       </c>
       <c r="E18" s="63">
         <f ca="1">F17</f>
-        <v>45200</v>
+        <v>45210</v>
       </c>
       <c r="F18" s="63">
         <f ca="1">E18+3</f>
-        <v>45203</v>
+        <v>45213</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="E19" s="63">
         <f ca="1">E18</f>
-        <v>45200</v>
+        <v>45210</v>
       </c>
       <c r="F19" s="63">
         <f ca="1">E19+2</f>
-        <v>45202</v>
+        <v>45212</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
@@ -4060,17 +4060,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
@@ -4158,15 +4158,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4454,34 +4445,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4500,4 +4492,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Diagrama Gant.xlsx
+++ b/Diagrama Gant.xlsx
@@ -1159,23 +1159,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1731,8 +1731,8 @@
   <dimension ref="A1:BL31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,107 +1783,107 @@
       <c r="B3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="75">
+      <c r="D3" s="75"/>
+      <c r="E3" s="73">
         <f ca="1">TODAY()</f>
-        <v>45198</v>
-      </c>
-      <c r="F3" s="75"/>
+        <v>45216</v>
+      </c>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="71"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="70">
         <f ca="1">I5</f>
-        <v>45194</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="72">
+        <v>45215</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="70">
         <f ca="1">P5</f>
-        <v>45201</v>
-      </c>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="72">
+        <v>45222</v>
+      </c>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="70">
         <f ca="1">W5</f>
-        <v>45208</v>
-      </c>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="72">
+        <v>45229</v>
+      </c>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="70">
         <f ca="1">AD5</f>
-        <v>45215</v>
-      </c>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="72">
+        <v>45236</v>
+      </c>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="70">
         <f ca="1">AK5</f>
-        <v>45222</v>
-      </c>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
-      <c r="AO4" s="73"/>
-      <c r="AP4" s="73"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="72">
+        <v>45243</v>
+      </c>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="70">
         <f ca="1">AR5</f>
-        <v>45229</v>
-      </c>
-      <c r="AS4" s="73"/>
-      <c r="AT4" s="73"/>
-      <c r="AU4" s="73"/>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="AX4" s="74"/>
-      <c r="AY4" s="72">
+        <v>45250</v>
+      </c>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
+      <c r="AU4" s="71"/>
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="70">
         <f ca="1">AY5</f>
-        <v>45236</v>
-      </c>
-      <c r="AZ4" s="73"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="73"/>
-      <c r="BC4" s="73"/>
-      <c r="BD4" s="73"/>
-      <c r="BE4" s="74"/>
-      <c r="BF4" s="72">
+        <v>45257</v>
+      </c>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="70">
         <f ca="1">BF5</f>
-        <v>45243</v>
-      </c>
-      <c r="BG4" s="73"/>
-      <c r="BH4" s="73"/>
-      <c r="BI4" s="73"/>
-      <c r="BJ4" s="73"/>
-      <c r="BK4" s="73"/>
-      <c r="BL4" s="74"/>
+        <v>45264</v>
+      </c>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="71"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="72"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
@@ -1897,227 +1897,227 @@
       <c r="G5" s="48"/>
       <c r="I5" s="59">
         <f ca="1">Inicio_del_proyecto-WEEKDAY(Inicio_del_proyecto,1)+2+7*(Semana_para_mostrar-1)</f>
-        <v>45194</v>
+        <v>45215</v>
       </c>
       <c r="J5" s="60">
         <f ca="1">I5+1</f>
-        <v>45195</v>
+        <v>45216</v>
       </c>
       <c r="K5" s="60">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="L5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45197</v>
+        <v>45218</v>
       </c>
       <c r="M5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45198</v>
+        <v>45219</v>
       </c>
       <c r="N5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45199</v>
+        <v>45220</v>
       </c>
       <c r="O5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
+        <v>45221</v>
       </c>
       <c r="P5" s="59">
         <f ca="1">O5+1</f>
-        <v>45201</v>
+        <v>45222</v>
       </c>
       <c r="Q5" s="60">
         <f ca="1">P5+1</f>
-        <v>45202</v>
+        <v>45223</v>
       </c>
       <c r="R5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45203</v>
+        <v>45224</v>
       </c>
       <c r="S5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45204</v>
+        <v>45225</v>
       </c>
       <c r="T5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45205</v>
+        <v>45226</v>
       </c>
       <c r="U5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45206</v>
+        <v>45227</v>
       </c>
       <c r="V5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45207</v>
+        <v>45228</v>
       </c>
       <c r="W5" s="59">
         <f ca="1">V5+1</f>
-        <v>45208</v>
+        <v>45229</v>
       </c>
       <c r="X5" s="60">
         <f ca="1">W5+1</f>
-        <v>45209</v>
+        <v>45230</v>
       </c>
       <c r="Y5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45210</v>
+        <v>45231</v>
       </c>
       <c r="Z5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45211</v>
+        <v>45232</v>
       </c>
       <c r="AA5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45212</v>
+        <v>45233</v>
       </c>
       <c r="AB5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45213</v>
+        <v>45234</v>
       </c>
       <c r="AC5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45214</v>
+        <v>45235</v>
       </c>
       <c r="AD5" s="59">
         <f ca="1">AC5+1</f>
-        <v>45215</v>
+        <v>45236</v>
       </c>
       <c r="AE5" s="60">
         <f ca="1">AD5+1</f>
-        <v>45216</v>
+        <v>45237</v>
       </c>
       <c r="AF5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45217</v>
+        <v>45238</v>
       </c>
       <c r="AG5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45218</v>
+        <v>45239</v>
       </c>
       <c r="AH5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
       <c r="AI5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45220</v>
+        <v>45241</v>
       </c>
       <c r="AJ5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45221</v>
+        <v>45242</v>
       </c>
       <c r="AK5" s="59">
         <f ca="1">AJ5+1</f>
-        <v>45222</v>
+        <v>45243</v>
       </c>
       <c r="AL5" s="60">
         <f ca="1">AK5+1</f>
-        <v>45223</v>
+        <v>45244</v>
       </c>
       <c r="AM5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45224</v>
+        <v>45245</v>
       </c>
       <c r="AN5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45246</v>
       </c>
       <c r="AO5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45226</v>
+        <v>45247</v>
       </c>
       <c r="AP5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45227</v>
+        <v>45248</v>
       </c>
       <c r="AQ5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45228</v>
+        <v>45249</v>
       </c>
       <c r="AR5" s="59">
         <f ca="1">AQ5+1</f>
-        <v>45229</v>
+        <v>45250</v>
       </c>
       <c r="AS5" s="60">
         <f ca="1">AR5+1</f>
-        <v>45230</v>
+        <v>45251</v>
       </c>
       <c r="AT5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45231</v>
+        <v>45252</v>
       </c>
       <c r="AU5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45232</v>
+        <v>45253</v>
       </c>
       <c r="AV5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45233</v>
+        <v>45254</v>
       </c>
       <c r="AW5" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45234</v>
+        <v>45255</v>
       </c>
       <c r="AX5" s="61">
         <f t="shared" ca="1" si="0"/>
-        <v>45235</v>
+        <v>45256</v>
       </c>
       <c r="AY5" s="59">
         <f ca="1">AX5+1</f>
-        <v>45236</v>
+        <v>45257</v>
       </c>
       <c r="AZ5" s="60">
         <f ca="1">AY5+1</f>
-        <v>45237</v>
+        <v>45258</v>
       </c>
       <c r="BA5" s="60">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45238</v>
+        <v>45259</v>
       </c>
       <c r="BB5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45239</v>
+        <v>45260</v>
       </c>
       <c r="BC5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45261</v>
       </c>
       <c r="BD5" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45241</v>
+        <v>45262</v>
       </c>
       <c r="BE5" s="61">
         <f t="shared" ca="1" si="1"/>
-        <v>45242</v>
+        <v>45263</v>
       </c>
       <c r="BF5" s="59">
         <f ca="1">BE5+1</f>
-        <v>45243</v>
+        <v>45264</v>
       </c>
       <c r="BG5" s="60">
         <f ca="1">BF5+1</f>
-        <v>45244</v>
+        <v>45265</v>
       </c>
       <c r="BH5" s="60">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45245</v>
+        <v>45266</v>
       </c>
       <c r="BI5" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45246</v>
+        <v>45267</v>
       </c>
       <c r="BJ5" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45247</v>
+        <v>45268</v>
       </c>
       <c r="BK5" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45248</v>
+        <v>45269</v>
       </c>
       <c r="BL5" s="61">
         <f t="shared" ca="1" si="2"/>
-        <v>45249</v>
+        <v>45270</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2523,11 +2523,11 @@
       </c>
       <c r="E9" s="62">
         <f ca="1">Inicio_del_proyecto</f>
-        <v>45198</v>
+        <v>45216</v>
       </c>
       <c r="F9" s="62">
         <f ca="1">E9+3</f>
-        <v>45201</v>
+        <v>45219</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
@@ -2606,11 +2606,11 @@
       </c>
       <c r="E10" s="62">
         <f ca="1">F9</f>
-        <v>45201</v>
+        <v>45219</v>
       </c>
       <c r="F10" s="62">
         <f ca="1">E10+2</f>
-        <v>45203</v>
+        <v>45221</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
@@ -2683,15 +2683,15 @@
         <v>45</v>
       </c>
       <c r="D11" s="17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E11" s="62">
         <f ca="1">F10</f>
-        <v>45203</v>
+        <v>45221</v>
       </c>
       <c r="F11" s="62">
         <f ca="1">E11+4</f>
-        <v>45207</v>
+        <v>45225</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14">
@@ -2764,15 +2764,15 @@
         <v>44</v>
       </c>
       <c r="D12" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E12" s="62">
         <f ca="1">F11</f>
-        <v>45207</v>
+        <v>45225</v>
       </c>
       <c r="F12" s="62">
         <f ca="1">E12+5</f>
-        <v>45212</v>
+        <v>45230</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
@@ -2845,15 +2845,15 @@
         <v>44</v>
       </c>
       <c r="D13" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="62">
         <f ca="1">E10+1</f>
-        <v>45202</v>
+        <v>45220</v>
       </c>
       <c r="F13" s="62">
         <f ca="1">E13+2</f>
-        <v>45204</v>
+        <v>45222</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
@@ -3065,15 +3065,15 @@
         <v>44</v>
       </c>
       <c r="D16" s="20">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="63">
         <f ca="1">E13+1</f>
-        <v>45203</v>
+        <v>45221</v>
       </c>
       <c r="F16" s="63">
         <f ca="1">E16+4</f>
-        <v>45207</v>
+        <v>45225</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
@@ -3146,15 +3146,15 @@
         <v>44</v>
       </c>
       <c r="D17" s="20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E17" s="63">
         <f ca="1">E16+2</f>
-        <v>45205</v>
+        <v>45223</v>
       </c>
       <c r="F17" s="63">
         <f ca="1">E17+5</f>
-        <v>45210</v>
+        <v>45228</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14">
@@ -3227,15 +3227,15 @@
         <v>44</v>
       </c>
       <c r="D18" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="63">
         <f ca="1">F17</f>
-        <v>45210</v>
+        <v>45228</v>
       </c>
       <c r="F18" s="63">
         <f ca="1">E18+3</f>
-        <v>45213</v>
+        <v>45231</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
@@ -3308,15 +3308,15 @@
         <v>44</v>
       </c>
       <c r="D19" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="63">
         <f ca="1">E18</f>
-        <v>45210</v>
+        <v>45228</v>
       </c>
       <c r="F19" s="63">
         <f ca="1">E19+2</f>
-        <v>45212</v>
+        <v>45230</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14">
@@ -3389,7 +3389,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="63">
         <v>45207</v>
@@ -3465,7 +3465,7 @@
         <v>44</v>
       </c>
       <c r="D21" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="63">
         <v>45215</v>
@@ -3541,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="D22" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="63">
         <v>45218</v>
@@ -3758,7 +3758,9 @@
       <c r="C25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="23">
+        <v>1</v>
+      </c>
       <c r="E25" s="64">
         <v>45223</v>
       </c>
@@ -3835,7 +3837,9 @@
       <c r="C26" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
       <c r="E26" s="64">
         <v>45223</v>
       </c>
@@ -4060,17 +4064,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D28">
     <cfRule type="dataBar" priority="14">
@@ -4158,6 +4162,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4445,15 +4458,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
@@ -4474,6 +4478,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4492,12 +4504,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>